--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462A2C2-42AF-4BCC-AB9A-77D473C404D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2301A-A208-44DE-917D-D83C7B475006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
   <si>
     <t>No.</t>
   </si>
@@ -719,16 +719,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,6 +736,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,12 +765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,10 +1135,10 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1152,20 +1152,20 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1179,18 +1179,18 @@
         <v>15</v>
       </c>
       <c r="K3" s="9"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1212,8 +1212,8 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1235,8 +1235,8 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1250,20 +1250,20 @@
         <v>15</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1275,20 +1275,20 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="31"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>157</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G8" s="6"/>
@@ -1304,22 +1304,24 @@
       <c r="I8" s="6">
         <v>80</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="31"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G9" s="6"/>
@@ -1337,20 +1339,20 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="31"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1370,8 +1372,8 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1383,7 +1385,9 @@
       <c r="I11" s="6">
         <v>50</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1393,8 +1397,8 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
@@ -1414,8 +1418,8 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1435,8 +1439,8 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
@@ -1456,8 +1460,8 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
@@ -1477,8 +1481,8 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
@@ -1498,8 +1502,8 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1519,8 +1523,8 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1538,10 +1542,10 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1563,18 +1567,18 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="25" t="s">
         <v>157</v>
       </c>
       <c r="I20" s="6"/>
@@ -1588,8 +1592,8 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1607,10 +1611,10 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="26">
         <v>3</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1632,15 +1636,15 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="25" t="s">
         <v>157</v>
       </c>
       <c r="H23" s="6"/>
@@ -1655,8 +1659,8 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
@@ -1676,8 +1680,8 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1697,8 +1701,8 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>157</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G26" s="6"/>
@@ -1714,7 +1718,9 @@
       <c r="I26" s="6">
         <v>60</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1724,8 +1730,8 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="14" t="s">
         <v>67</v>
       </c>
@@ -1745,8 +1751,8 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="14" t="s">
         <v>68</v>
       </c>
@@ -1766,8 +1772,8 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
@@ -1787,8 +1793,8 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="14" t="s">
         <v>69</v>
       </c>
@@ -1808,8 +1814,8 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="14" t="s">
         <v>70</v>
       </c>
@@ -1829,8 +1835,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="14" t="s">
         <v>71</v>
       </c>
@@ -1840,7 +1846,9 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1850,8 +1858,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="14" t="s">
         <v>81</v>
       </c>
@@ -1871,8 +1879,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -1890,8 +1898,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>82</v>
       </c>
@@ -1911,8 +1919,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>83</v>
       </c>
@@ -1932,8 +1940,8 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="14" t="s">
         <v>84</v>
       </c>
@@ -1953,8 +1961,8 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="14" t="s">
         <v>85</v>
       </c>
@@ -1974,8 +1982,8 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="14"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
@@ -1993,8 +2001,8 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="14" t="s">
         <v>86</v>
       </c>
@@ -2014,8 +2022,8 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="14" t="s">
         <v>87</v>
       </c>
@@ -2035,8 +2043,8 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="14" t="s">
         <v>88</v>
       </c>
@@ -2056,8 +2064,8 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="14" t="s">
         <v>89</v>
       </c>
@@ -2077,8 +2085,8 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -2096,8 +2104,8 @@
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="14" t="s">
         <v>90</v>
       </c>
@@ -2117,8 +2125,8 @@
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="14" t="s">
         <v>91</v>
       </c>
@@ -2138,8 +2146,8 @@
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="14" t="s">
         <v>92</v>
       </c>
@@ -2159,8 +2167,8 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="14" t="s">
         <v>93</v>
       </c>
@@ -2180,8 +2188,8 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -2199,8 +2207,8 @@
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="14" t="s">
         <v>94</v>
       </c>
@@ -2220,8 +2228,8 @@
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="14" t="s">
         <v>95</v>
       </c>
@@ -2241,8 +2249,8 @@
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="14" t="s">
         <v>96</v>
       </c>
@@ -2262,8 +2270,8 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="14" t="s">
         <v>97</v>
       </c>
@@ -2283,8 +2291,8 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="14"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
@@ -2302,8 +2310,8 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="14" t="s">
         <v>98</v>
       </c>
@@ -2323,8 +2331,8 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="14" t="s">
         <v>99</v>
       </c>
@@ -2344,8 +2352,8 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="14" t="s">
         <v>100</v>
       </c>
@@ -2365,8 +2373,8 @@
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="14"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
@@ -2384,8 +2392,8 @@
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="11" t="s">
         <v>153</v>
       </c>
@@ -2405,8 +2413,8 @@
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="11" t="s">
         <v>154</v>
       </c>
@@ -2426,8 +2434,8 @@
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="11" t="s">
         <v>155</v>
       </c>
@@ -2447,8 +2455,8 @@
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="8" t="s">
         <v>156</v>
       </c>
@@ -2468,8 +2476,8 @@
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="10"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
@@ -2487,10 +2495,10 @@
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25">
+      <c r="A64" s="26">
         <v>4</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -2516,8 +2524,8 @@
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="11" t="s">
         <v>72</v>
       </c>
@@ -2541,8 +2549,8 @@
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="11" t="s">
         <v>73</v>
       </c>
@@ -2562,8 +2570,8 @@
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="11" t="s">
         <v>74</v>
       </c>
@@ -2583,8 +2591,8 @@
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="11" t="s">
         <v>75</v>
       </c>
@@ -2604,8 +2612,8 @@
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="11" t="s">
         <v>41</v>
       </c>
@@ -2625,8 +2633,8 @@
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
         <v>43</v>
       </c>
@@ -2646,10 +2654,10 @@
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25">
+      <c r="A71" s="26">
         <v>5</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2671,8 +2679,8 @@
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="8" t="s">
         <v>76</v>
       </c>
@@ -2692,8 +2700,8 @@
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="8" t="s">
         <v>77</v>
       </c>
@@ -2713,8 +2721,8 @@
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="8" t="s">
         <v>79</v>
       </c>
@@ -2734,8 +2742,8 @@
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="8" t="s">
         <v>78</v>
       </c>
@@ -2755,8 +2763,8 @@
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="11" t="s">
         <v>80</v>
       </c>
@@ -2776,8 +2784,8 @@
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="11" t="s">
         <v>152</v>
       </c>
@@ -2797,8 +2805,8 @@
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="11" t="s">
         <v>102</v>
       </c>
@@ -2818,8 +2826,8 @@
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="11" t="s">
         <v>101</v>
       </c>
@@ -2839,8 +2847,8 @@
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="11" t="s">
         <v>46</v>
       </c>
@@ -2860,8 +2868,8 @@
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="11" t="s">
         <v>47</v>
       </c>
@@ -2881,8 +2889,8 @@
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="8" t="s">
         <v>48</v>
       </c>
@@ -2902,8 +2910,8 @@
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="8" t="s">
         <v>103</v>
       </c>
@@ -2923,8 +2931,8 @@
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="10"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -2942,10 +2950,10 @@
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="26">
+      <c r="A85" s="31">
         <v>6</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="31" t="s">
         <v>106</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -2967,8 +2975,8 @@
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="11" t="s">
         <v>109</v>
       </c>
@@ -2988,8 +2996,8 @@
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="11" t="s">
         <v>110</v>
       </c>
@@ -3009,8 +3017,8 @@
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="11" t="s">
         <v>111</v>
       </c>
@@ -3030,8 +3038,8 @@
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="11" t="s">
         <v>112</v>
       </c>
@@ -3051,8 +3059,8 @@
       <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="11" t="s">
         <v>113</v>
       </c>
@@ -3072,8 +3080,8 @@
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="11" t="s">
         <v>114</v>
       </c>
@@ -3093,8 +3101,8 @@
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
@@ -3112,10 +3120,10 @@
       <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="26">
+      <c r="A93" s="31">
         <v>7</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -3137,8 +3145,8 @@
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="10"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
@@ -3156,8 +3164,8 @@
       <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="11" t="s">
         <v>51</v>
       </c>
@@ -3167,7 +3175,9 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3177,8 +3187,8 @@
       <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -3188,7 +3198,9 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -3198,8 +3210,8 @@
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="11" t="s">
         <v>104</v>
       </c>
@@ -3219,8 +3231,8 @@
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="11" t="s">
         <v>53</v>
       </c>
@@ -3240,8 +3252,8 @@
       <c r="Q98" s="3"/>
     </row>
     <row r="99" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="11" t="s">
         <v>54</v>
       </c>
@@ -3261,8 +3273,8 @@
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="11" t="s">
         <v>55</v>
       </c>
@@ -3282,8 +3294,8 @@
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="11" t="s">
         <v>105</v>
       </c>
@@ -3303,8 +3315,8 @@
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="11"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
@@ -3322,8 +3334,8 @@
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
@@ -3341,10 +3353,10 @@
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="26">
+      <c r="A104" s="31">
         <v>8</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3366,8 +3378,8 @@
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="11" t="s">
         <v>58</v>
       </c>
@@ -3388,6 +3400,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A71:A84"/>
+    <mergeCell ref="B71:B84"/>
+    <mergeCell ref="A93:A103"/>
+    <mergeCell ref="B93:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A63"/>
+    <mergeCell ref="B22:B63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:B70"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="L2:L3"/>
@@ -3398,20 +3424,6 @@
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A63"/>
-    <mergeCell ref="B22:B63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A71:A84"/>
-    <mergeCell ref="B71:B84"/>
-    <mergeCell ref="A93:A103"/>
-    <mergeCell ref="B93:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3441,34 +3453,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="33"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3553,7 +3565,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3575,7 +3587,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3597,7 +3609,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3619,7 +3631,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3641,7 +3653,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3663,13 +3675,13 @@
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="10"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="36"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
@@ -3690,14 +3702,14 @@
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="10"/>
-      <c r="S10" s="36" t="s">
+      <c r="S10" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -3718,7 +3730,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3740,7 +3752,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="20"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="10"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -3764,7 +3776,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="10"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -3788,7 +3800,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="10"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -3812,7 +3824,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="34"/>
+      <c r="O15" s="36"/>
       <c r="P15" s="10"/>
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
@@ -3836,7 +3848,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="34"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="10"/>
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
@@ -3860,7 +3872,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="34"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="10"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -3884,7 +3896,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="34"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="10"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -3908,7 +3920,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="34"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="10"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -3932,7 +3944,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="34"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="10"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3956,7 +3968,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="34"/>
+      <c r="O21" s="36"/>
       <c r="P21" s="10"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -3980,7 +3992,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="34"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4002,7 +4014,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="20"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="34"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4024,7 +4036,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="34"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4046,7 +4058,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="34"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4068,7 +4080,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="20"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="34"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="10"/>
       <c r="U26" s="15"/>
     </row>
@@ -4091,7 +4103,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="20"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="34"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4113,7 +4125,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="35"/>
+      <c r="O28" s="37"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">

--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2301A-A208-44DE-917D-D83C7B475006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A098E2-5484-4027-8E5A-BFC727222007}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>No.</t>
   </si>
@@ -506,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +548,19 @@
       <color theme="1"/>
       <name val="Bahnschrift Light SemiCondensed"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Bahnschrift Light SemiCondensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -671,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +735,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,10 +1150,10 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1152,20 +1167,20 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1179,18 +1194,18 @@
         <v>15</v>
       </c>
       <c r="K3" s="9"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1212,8 +1227,8 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1235,8 +1250,8 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1250,20 +1265,20 @@
         <v>15</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1275,26 +1290,24 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
         <v>157</v>
@@ -1308,20 +1321,20 @@
         <v>23</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="29"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1329,9 +1342,7 @@
         <v>157</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="25" t="s">
-        <v>157</v>
-      </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6">
@@ -1339,20 +1350,20 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1372,8 +1383,8 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1397,8 +1408,8 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
@@ -1418,8 +1429,8 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1450,8 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
@@ -1460,8 +1471,8 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
@@ -1481,8 +1492,8 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
@@ -1502,8 +1513,8 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1523,8 +1534,8 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1542,10 +1553,10 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1567,8 +1578,8 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
@@ -1592,8 +1603,8 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1611,10 +1622,10 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="28">
         <v>3</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1636,8 +1647,8 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
         <v>65</v>
       </c>
@@ -1659,8 +1670,8 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
@@ -1680,8 +1691,8 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1701,8 +1712,8 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
@@ -1730,8 +1741,8 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="14" t="s">
         <v>67</v>
       </c>
@@ -1751,8 +1762,8 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="14" t="s">
         <v>68</v>
       </c>
@@ -1772,8 +1783,8 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
@@ -1793,8 +1804,8 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="14" t="s">
         <v>69</v>
       </c>
@@ -1814,8 +1825,8 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="14" t="s">
         <v>70</v>
       </c>
@@ -1835,8 +1846,8 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="14" t="s">
         <v>71</v>
       </c>
@@ -1858,8 +1869,8 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="14" t="s">
         <v>81</v>
       </c>
@@ -1879,8 +1890,8 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -1898,8 +1909,8 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="14" t="s">
         <v>82</v>
       </c>
@@ -1919,8 +1930,8 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="14" t="s">
         <v>83</v>
       </c>
@@ -1940,8 +1951,8 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="14" t="s">
         <v>84</v>
       </c>
@@ -1961,8 +1972,8 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="14" t="s">
         <v>85</v>
       </c>
@@ -1982,8 +1993,8 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="14"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
@@ -2001,8 +2012,8 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="14" t="s">
         <v>86</v>
       </c>
@@ -2022,8 +2033,8 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="14" t="s">
         <v>87</v>
       </c>
@@ -2043,8 +2054,8 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="14" t="s">
         <v>88</v>
       </c>
@@ -2064,8 +2075,8 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="14" t="s">
         <v>89</v>
       </c>
@@ -2085,8 +2096,8 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -2104,8 +2115,8 @@
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="14" t="s">
         <v>90</v>
       </c>
@@ -2125,8 +2136,8 @@
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="14" t="s">
         <v>91</v>
       </c>
@@ -2146,8 +2157,8 @@
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="14" t="s">
         <v>92</v>
       </c>
@@ -2167,8 +2178,8 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="14" t="s">
         <v>93</v>
       </c>
@@ -2188,8 +2199,8 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -2207,8 +2218,8 @@
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="14" t="s">
         <v>94</v>
       </c>
@@ -2228,8 +2239,8 @@
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="14" t="s">
         <v>95</v>
       </c>
@@ -2249,8 +2260,8 @@
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="14" t="s">
         <v>96</v>
       </c>
@@ -2270,8 +2281,8 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="14" t="s">
         <v>97</v>
       </c>
@@ -2291,8 +2302,8 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="14"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
@@ -2310,8 +2321,8 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="14" t="s">
         <v>98</v>
       </c>
@@ -2331,8 +2342,8 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="14" t="s">
         <v>99</v>
       </c>
@@ -2352,8 +2363,8 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="14" t="s">
         <v>100</v>
       </c>
@@ -2373,8 +2384,8 @@
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="14"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
@@ -2392,8 +2403,8 @@
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="11" t="s">
         <v>153</v>
       </c>
@@ -2413,8 +2424,8 @@
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="11" t="s">
         <v>154</v>
       </c>
@@ -2434,8 +2445,8 @@
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="11" t="s">
         <v>155</v>
       </c>
@@ -2455,8 +2466,8 @@
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="8" t="s">
         <v>156</v>
       </c>
@@ -2476,8 +2487,8 @@
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="10"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
@@ -2495,10 +2506,10 @@
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="26">
+      <c r="A64" s="28">
         <v>4</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -2524,8 +2535,8 @@
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="11" t="s">
         <v>72</v>
       </c>
@@ -2549,8 +2560,8 @@
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="11" t="s">
         <v>73</v>
       </c>
@@ -2570,8 +2581,8 @@
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="11" t="s">
         <v>74</v>
       </c>
@@ -2591,8 +2602,8 @@
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="11" t="s">
         <v>75</v>
       </c>
@@ -2612,8 +2623,8 @@
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="11" t="s">
         <v>41</v>
       </c>
@@ -2633,8 +2644,8 @@
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="10" t="s">
         <v>43</v>
       </c>
@@ -2654,10 +2665,10 @@
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
+      <c r="A71" s="28">
         <v>5</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2679,8 +2690,8 @@
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="8" t="s">
         <v>76</v>
       </c>
@@ -2700,8 +2711,8 @@
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="8" t="s">
         <v>77</v>
       </c>
@@ -2721,8 +2732,8 @@
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="8" t="s">
         <v>79</v>
       </c>
@@ -2742,8 +2753,8 @@
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="8" t="s">
         <v>78</v>
       </c>
@@ -2763,8 +2774,8 @@
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="11" t="s">
         <v>80</v>
       </c>
@@ -2784,8 +2795,8 @@
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="11" t="s">
         <v>152</v>
       </c>
@@ -2805,8 +2816,8 @@
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="11" t="s">
         <v>102</v>
       </c>
@@ -2826,8 +2837,8 @@
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="11" t="s">
         <v>101</v>
       </c>
@@ -2847,8 +2858,8 @@
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="11" t="s">
         <v>46</v>
       </c>
@@ -2868,8 +2879,8 @@
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="11" t="s">
         <v>47</v>
       </c>
@@ -2889,8 +2900,8 @@
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="8" t="s">
         <v>48</v>
       </c>
@@ -2910,8 +2921,8 @@
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="8" t="s">
         <v>103</v>
       </c>
@@ -2931,8 +2942,8 @@
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="10"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -2950,10 +2961,10 @@
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="31">
+      <c r="A85" s="33">
         <v>6</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -2975,8 +2986,8 @@
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="11" t="s">
         <v>109</v>
       </c>
@@ -2996,8 +3007,8 @@
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="11" t="s">
         <v>110</v>
       </c>
@@ -3017,8 +3028,8 @@
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="11" t="s">
         <v>111</v>
       </c>
@@ -3038,8 +3049,8 @@
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="11" t="s">
         <v>112</v>
       </c>
@@ -3059,8 +3070,8 @@
       <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="11" t="s">
         <v>113</v>
       </c>
@@ -3080,8 +3091,8 @@
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="11" t="s">
         <v>114</v>
       </c>
@@ -3101,8 +3112,8 @@
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
@@ -3120,10 +3131,10 @@
       <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="31">
+      <c r="A93" s="33">
         <v>7</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -3145,8 +3156,8 @@
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="10"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
@@ -3164,13 +3175,15 @@
       <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -3187,8 +3200,8 @@
       <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="11" t="s">
         <v>52</v>
       </c>
@@ -3210,8 +3223,8 @@
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="11" t="s">
         <v>104</v>
       </c>
@@ -3231,8 +3244,8 @@
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="11" t="s">
         <v>53</v>
       </c>
@@ -3252,8 +3265,8 @@
       <c r="Q98" s="3"/>
     </row>
     <row r="99" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="11" t="s">
         <v>54</v>
       </c>
@@ -3273,8 +3286,8 @@
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="11" t="s">
         <v>55</v>
       </c>
@@ -3294,8 +3307,8 @@
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="11" t="s">
         <v>105</v>
       </c>
@@ -3315,8 +3328,8 @@
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="11"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
@@ -3334,8 +3347,8 @@
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
@@ -3353,10 +3366,10 @@
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="31">
+      <c r="A104" s="33">
         <v>8</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3378,8 +3391,8 @@
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="11" t="s">
         <v>58</v>
       </c>
@@ -3432,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5FD47C-24B8-4927-81AC-8663CB477FE5}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3453,34 +3466,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
@@ -3543,7 +3556,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="35"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3565,7 +3578,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="36"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3587,7 +3600,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="36"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3609,7 +3622,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="36"/>
+      <c r="O6" s="38"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3631,7 +3644,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="36"/>
+      <c r="O7" s="38"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3653,7 +3666,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="36"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3675,13 +3688,13 @@
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="36"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="10"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="38"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
@@ -3702,14 +3715,14 @@
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="36"/>
+      <c r="O10" s="38"/>
       <c r="P10" s="10"/>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -3730,7 +3743,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="36"/>
+      <c r="O11" s="38"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3752,7 +3765,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="20"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="36"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="10"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -3776,7 +3789,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="36"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="10"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -3800,7 +3813,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="36"/>
+      <c r="O14" s="38"/>
       <c r="P14" s="10"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -3824,7 +3837,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="36"/>
+      <c r="O15" s="38"/>
       <c r="P15" s="10"/>
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
@@ -3848,7 +3861,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="36"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="10"/>
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
@@ -3872,7 +3885,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="36"/>
+      <c r="O17" s="38"/>
       <c r="P17" s="10"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -3896,7 +3909,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="36"/>
+      <c r="O18" s="38"/>
       <c r="P18" s="10"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -3920,7 +3933,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="36"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="10"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -3944,7 +3957,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="36"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="10"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3968,7 +3981,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="36"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="10"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -3992,7 +4005,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4005,7 +4018,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="20"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -4014,7 +4027,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="20"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="36"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4036,7 +4049,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="36"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4058,7 +4071,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="36"/>
+      <c r="O25" s="38"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4080,7 +4093,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="20"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="36"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="10"/>
       <c r="U26" s="15"/>
     </row>
@@ -4103,7 +4116,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="20"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="36"/>
+      <c r="O27" s="38"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4125,11 +4138,14 @@
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="37"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H29" s="23"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A098E2-5484-4027-8E5A-BFC727222007}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366BCB4-6E8E-44F6-9B48-A43D8156D11C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Rahimah</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -64,21 +61,12 @@
     <t>Design Document</t>
   </si>
   <si>
-    <t xml:space="preserve">Priority  </t>
-  </si>
-  <si>
-    <t>0 (Lowest Priority)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   - Story Summary</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>100 (Highest Priority)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   - Game Discription</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t xml:space="preserve">                   - Snowy Place</t>
   </si>
   <si>
-    <t xml:space="preserve">                   - Cave (with some lava)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   - One very tall building</t>
   </si>
   <si>
@@ -500,6 +485,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   - Cave</t>
   </si>
 </sst>
 </file>
@@ -684,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,7 +728,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,15 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +767,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,20 +1090,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,26 +1131,23 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -1165,122 +1155,110 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="30"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="30"/>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="9"/>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -1288,84 +1266,77 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" s="12"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>80</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="25"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>80</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -1373,45 +1344,43 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>50</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -1419,20 +1388,19 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -1440,20 +1408,19 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -1461,20 +1428,19 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
@@ -1482,20 +1448,19 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -1503,20 +1468,19 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -1524,16 +1488,15 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="10"/>
@@ -1543,24 +1506,23 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>2</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1568,41 +1530,39 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="10"/>
@@ -1612,24 +1572,23 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>3</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1637,43 +1596,41 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1681,20 +1638,19 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -1702,49 +1658,45 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6">
-        <v>60</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -1752,20 +1704,19 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -1773,20 +1724,19 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -1794,102 +1744,109 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="14"/>
@@ -1899,100 +1856,103 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="14"/>
@@ -2002,20 +1962,19 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
@@ -2023,20 +1982,19 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
@@ -2044,20 +2002,19 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -2065,20 +2022,19 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
@@ -2086,16 +2042,15 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="14"/>
@@ -2105,20 +2060,19 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
@@ -2126,20 +2080,19 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -2147,20 +2100,19 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
@@ -2168,20 +2120,19 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -2189,16 +2140,15 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="14"/>
@@ -2208,20 +2158,19 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
@@ -2229,20 +2178,19 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
@@ -2250,20 +2198,19 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
@@ -2271,20 +2218,19 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
@@ -2292,16 +2238,15 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="14"/>
@@ -2311,20 +2256,19 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
@@ -2332,20 +2276,19 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
@@ -2353,20 +2296,19 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
@@ -2374,16 +2316,15 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="14"/>
@@ -2393,20 +2334,19 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
@@ -2414,20 +2354,19 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
@@ -2435,20 +2374,19 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
@@ -2456,20 +2394,19 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
@@ -2477,16 +2414,15 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="10"/>
@@ -2496,158 +2432,173 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="28">
         <v>4</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="H66" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
@@ -2655,24 +2606,23 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="28">
         <v>5</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
@@ -2680,41 +2630,41 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -2722,20 +2672,19 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -2743,20 +2692,19 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
@@ -2764,20 +2712,19 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
@@ -2785,20 +2732,19 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -2806,20 +2752,19 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
@@ -2827,20 +2772,19 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
@@ -2848,20 +2792,19 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
@@ -2869,20 +2812,19 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
@@ -2890,20 +2832,19 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
@@ -2911,20 +2852,19 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
@@ -2932,16 +2872,15 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="10"/>
@@ -2951,45 +2890,45 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="33">
+    </row>
+    <row r="85" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="29">
         <v>6</v>
       </c>
-      <c r="B85" s="33" t="s">
-        <v>106</v>
+      <c r="B85" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
@@ -2997,20 +2936,19 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
@@ -3018,20 +2956,19 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
@@ -3039,20 +2976,19 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
@@ -3060,41 +2996,41 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
@@ -3102,18 +3038,17 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
@@ -3121,24 +3056,23 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="33">
+    </row>
+    <row r="93" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="29">
         <v>7</v>
       </c>
-      <c r="B93" s="33" t="s">
-        <v>49</v>
+      <c r="B93" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
@@ -3146,18 +3080,17 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="10"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
@@ -3165,68 +3098,65 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
@@ -3234,20 +3164,19 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
@@ -3255,20 +3184,19 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
@@ -3276,20 +3204,19 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
@@ -3297,20 +3224,19 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
@@ -3318,18 +3244,17 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="11"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
@@ -3337,18 +3262,17 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
+    </row>
+    <row r="103" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
@@ -3356,24 +3280,23 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="33">
+    </row>
+    <row r="104" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="29">
         <v>8</v>
       </c>
-      <c r="B104" s="33" t="s">
-        <v>56</v>
+      <c r="B104" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
@@ -3381,20 +3304,19 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
+    </row>
+    <row r="105" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
@@ -3402,17 +3324,31 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A63"/>
+    <mergeCell ref="B22:B63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:B70"/>
     <mergeCell ref="A71:A84"/>
     <mergeCell ref="B71:B84"/>
     <mergeCell ref="A93:A103"/>
@@ -3421,22 +3357,6 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="A85:A92"/>
     <mergeCell ref="B85:B92"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A63"/>
-    <mergeCell ref="B22:B63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3466,75 +3386,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+    </row>
+    <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-    </row>
-    <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="O2" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3542,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3556,7 +3476,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="37"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3564,7 +3484,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3578,7 +3498,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="38"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3586,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3600,7 +3520,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3608,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="20"/>
@@ -3622,7 +3542,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="38"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3630,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="20"/>
@@ -3644,7 +3564,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="38"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3652,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
@@ -3666,7 +3586,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="38"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3674,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="20"/>
@@ -3688,20 +3608,20 @@
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="38"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="10"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="T9" s="40"/>
+      <c r="S9" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" s="39"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="20"/>
@@ -3715,21 +3635,21 @@
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="38"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="10"/>
-      <c r="S10" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="S10" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="20"/>
@@ -3743,7 +3663,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="38"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3751,7 +3671,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="20"/>
@@ -3765,7 +3685,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="20"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="38"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="10"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -3775,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="20"/>
@@ -3789,7 +3709,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="38"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="10"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -3799,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="20"/>
@@ -3813,7 +3733,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="38"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="10"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -3823,7 +3743,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
@@ -3837,7 +3757,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="38"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="10"/>
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
@@ -3847,7 +3767,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="20"/>
@@ -3861,7 +3781,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="38"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="10"/>
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
@@ -3871,7 +3791,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="20"/>
@@ -3885,7 +3805,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="38"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="10"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -3895,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="20"/>
@@ -3909,7 +3829,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="38"/>
+      <c r="O18" s="37"/>
       <c r="P18" s="10"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -3919,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="20"/>
@@ -3933,7 +3853,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="38"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="10"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -3943,7 +3863,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="20"/>
@@ -3957,7 +3877,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="38"/>
+      <c r="O20" s="37"/>
       <c r="P20" s="10"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3967,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="20"/>
@@ -3981,7 +3901,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="38"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="10"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -3991,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="20"/>
@@ -4005,7 +3925,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="38"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4013,7 +3933,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="20"/>
@@ -4027,7 +3947,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="20"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="38"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4035,7 +3955,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
@@ -4049,7 +3969,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="38"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4057,7 +3977,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="20"/>
@@ -4071,7 +3991,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="38"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4079,7 +3999,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="20"/>
@@ -4093,7 +4013,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="20"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="38"/>
+      <c r="O26" s="37"/>
       <c r="P26" s="10"/>
       <c r="U26" s="15"/>
     </row>
@@ -4102,7 +4022,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="20"/>
@@ -4116,7 +4036,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="20"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="38"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4124,7 +4044,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
@@ -4138,7 +4058,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="39"/>
+      <c r="O28" s="38"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">

--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366BCB4-6E8E-44F6-9B48-A43D8156D11C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C39B8C-C2CC-41C6-8EBF-1A6685B47551}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -725,8 +725,25 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,15 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,14 +775,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,10 +1140,10 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1156,15 +1156,15 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1177,16 +1177,16 @@
         <v>12</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1207,8 +1207,8 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1229,8 +1229,8 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1247,16 +1247,16 @@
         <v>16</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1271,16 +1271,16 @@
       <c r="L7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1299,16 +1299,16 @@
       <c r="L8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1325,16 +1325,16 @@
       <c r="L9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1353,13 +1353,13 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
+      <c r="D11" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1377,8 +1377,8 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
@@ -1397,8 +1397,8 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="8" t="s">
         <v>56</v>
       </c>
@@ -1437,8 +1437,8 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1457,8 +1457,8 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
@@ -1477,8 +1477,8 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1497,8 +1497,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1515,10 +1515,10 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="31">
         <v>2</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1539,20 +1539,18 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="25" t="s">
-        <v>152</v>
-      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1563,8 +1561,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1581,10 +1579,10 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="31">
         <v>3</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1605,8 +1603,8 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="8" t="s">
         <v>60</v>
       </c>
@@ -1627,8 +1625,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="11" t="s">
         <v>32</v>
       </c>
@@ -1647,8 +1645,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1667,8 +1665,8 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="14" t="s">
         <v>61</v>
       </c>
@@ -1693,8 +1691,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="14" t="s">
         <v>62</v>
       </c>
@@ -1713,8 +1711,8 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="14" t="s">
         <v>63</v>
       </c>
@@ -1733,8 +1731,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1753,8 +1751,8 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="14" t="s">
         <v>64</v>
       </c>
@@ -1777,8 +1775,8 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="14" t="s">
         <v>65</v>
       </c>
@@ -1801,8 +1799,8 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
@@ -1823,8 +1821,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="14" t="s">
         <v>76</v>
       </c>
@@ -1847,8 +1845,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -1865,8 +1863,8 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="14" t="s">
         <v>77</v>
       </c>
@@ -1887,8 +1885,8 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="14" t="s">
         <v>78</v>
       </c>
@@ -1909,8 +1907,8 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="14" t="s">
         <v>79</v>
       </c>
@@ -1931,8 +1929,8 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="14" t="s">
         <v>80</v>
       </c>
@@ -1953,8 +1951,8 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="14"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
@@ -1971,8 +1969,8 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="14" t="s">
         <v>81</v>
       </c>
@@ -1991,8 +1989,8 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="14" t="s">
         <v>82</v>
       </c>
@@ -2011,8 +2009,8 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="14" t="s">
         <v>83</v>
       </c>
@@ -2031,8 +2029,8 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="14" t="s">
         <v>84</v>
       </c>
@@ -2051,8 +2049,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -2069,8 +2067,8 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="14" t="s">
         <v>85</v>
       </c>
@@ -2089,8 +2087,8 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="14" t="s">
         <v>86</v>
       </c>
@@ -2109,8 +2107,8 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="14" t="s">
         <v>87</v>
       </c>
@@ -2129,8 +2127,8 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="14" t="s">
         <v>88</v>
       </c>
@@ -2149,8 +2147,8 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -2167,8 +2165,8 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="14" t="s">
         <v>89</v>
       </c>
@@ -2187,8 +2185,8 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="14" t="s">
         <v>90</v>
       </c>
@@ -2207,8 +2205,8 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="14" t="s">
         <v>91</v>
       </c>
@@ -2227,8 +2225,8 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="14" t="s">
         <v>92</v>
       </c>
@@ -2247,8 +2245,8 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="14"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
@@ -2265,8 +2263,8 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="14" t="s">
         <v>93</v>
       </c>
@@ -2285,8 +2283,8 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="14" t="s">
         <v>94</v>
       </c>
@@ -2305,8 +2303,8 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="14" t="s">
         <v>95</v>
       </c>
@@ -2325,8 +2323,8 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="14"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
@@ -2343,8 +2341,8 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="11" t="s">
         <v>148</v>
       </c>
@@ -2363,8 +2361,8 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="11" t="s">
         <v>149</v>
       </c>
@@ -2383,8 +2381,8 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="11" t="s">
         <v>150</v>
       </c>
@@ -2403,8 +2401,8 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="8" t="s">
         <v>151</v>
       </c>
@@ -2423,8 +2421,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="10"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
@@ -2441,10 +2439,10 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="28">
+      <c r="A64" s="31">
         <v>4</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -2471,8 +2469,8 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="11" t="s">
         <v>67</v>
       </c>
@@ -2497,8 +2495,8 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="11" t="s">
         <v>68</v>
       </c>
@@ -2523,8 +2521,8 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="11" t="s">
         <v>69</v>
       </c>
@@ -2547,8 +2545,8 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="11" t="s">
         <v>70</v>
       </c>
@@ -2571,8 +2569,8 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="11" t="s">
         <v>37</v>
       </c>
@@ -2595,8 +2593,8 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="10" t="s">
         <v>39</v>
       </c>
@@ -2615,10 +2613,10 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="28">
+      <c r="A71" s="31">
         <v>5</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2639,8 +2637,8 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2661,8 +2659,8 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2681,8 +2679,8 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="8" t="s">
         <v>74</v>
       </c>
@@ -2701,8 +2699,8 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="8" t="s">
         <v>73</v>
       </c>
@@ -2721,8 +2719,8 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="11" t="s">
         <v>75</v>
       </c>
@@ -2741,8 +2739,8 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="11" t="s">
         <v>147</v>
       </c>
@@ -2761,8 +2759,8 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="11" t="s">
         <v>97</v>
       </c>
@@ -2781,8 +2779,8 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="11" t="s">
         <v>96</v>
       </c>
@@ -2801,8 +2799,8 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="11" t="s">
         <v>42</v>
       </c>
@@ -2821,8 +2819,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="11" t="s">
         <v>43</v>
       </c>
@@ -2841,8 +2839,8 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="8" t="s">
         <v>44</v>
       </c>
@@ -2861,8 +2859,8 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="8" t="s">
         <v>98</v>
       </c>
@@ -2881,8 +2879,8 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="10"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -2899,10 +2897,10 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="29">
+      <c r="A85" s="36">
         <v>6</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -2925,8 +2923,8 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="11" t="s">
         <v>104</v>
       </c>
@@ -2945,8 +2943,8 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="11" t="s">
         <v>105</v>
       </c>
@@ -2965,8 +2963,8 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="11" t="s">
         <v>106</v>
       </c>
@@ -2985,8 +2983,8 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="11" t="s">
         <v>107</v>
       </c>
@@ -3005,8 +3003,8 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="11" t="s">
         <v>108</v>
       </c>
@@ -3027,8 +3025,8 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="11" t="s">
         <v>109</v>
       </c>
@@ -3047,8 +3045,8 @@
       <c r="P91" s="3"/>
     </row>
     <row r="92" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
@@ -3065,10 +3063,10 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="29">
+      <c r="A93" s="36">
         <v>7</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -3089,8 +3087,8 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="10"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
@@ -3107,8 +3105,8 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="11" t="s">
         <v>47</v>
       </c>
@@ -3116,7 +3114,9 @@
       <c r="E95" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6" t="s">
@@ -3131,14 +3131,16 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6" t="s">
@@ -3153,8 +3155,8 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="11" t="s">
         <v>99</v>
       </c>
@@ -3173,8 +3175,8 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="11" t="s">
         <v>49</v>
       </c>
@@ -3193,8 +3195,8 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="11" t="s">
         <v>50</v>
       </c>
@@ -3213,8 +3215,8 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="11" t="s">
         <v>51</v>
       </c>
@@ -3233,8 +3235,8 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="11" t="s">
         <v>100</v>
       </c>
@@ -3253,8 +3255,8 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="11"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
@@ -3271,8 +3273,8 @@
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
@@ -3289,10 +3291,10 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="29">
+      <c r="A104" s="36">
         <v>8</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -3313,8 +3315,8 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="11" t="s">
         <v>54</v>
       </c>
@@ -3334,6 +3336,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A71:A84"/>
+    <mergeCell ref="B71:B84"/>
+    <mergeCell ref="A93:A103"/>
+    <mergeCell ref="B93:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A63"/>
+    <mergeCell ref="B22:B63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:B70"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="L2:M2"/>
@@ -3343,20 +3359,6 @@
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A63"/>
-    <mergeCell ref="B22:B63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A71:A84"/>
-    <mergeCell ref="B71:B84"/>
-    <mergeCell ref="A93:A103"/>
-    <mergeCell ref="B93:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3386,34 +3388,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3478,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="36"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3498,7 +3500,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3520,7 +3522,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3542,7 +3544,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="37"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3564,7 +3566,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="37"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3586,7 +3588,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="37"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3608,13 +3610,13 @@
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="37"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="10"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="T9" s="39"/>
+      <c r="T9" s="43"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
@@ -3635,14 +3637,14 @@
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="37"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="10"/>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -3663,7 +3665,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="37"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3685,7 +3687,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="20"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="10"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -3709,7 +3711,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="37"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="10"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -3733,7 +3735,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="37"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="10"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -3757,7 +3759,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="37"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="10"/>
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
@@ -3781,7 +3783,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="10"/>
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
@@ -3805,7 +3807,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="37"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="10"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -3829,7 +3831,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="37"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="10"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -3853,7 +3855,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="37"/>
+      <c r="O19" s="41"/>
       <c r="P19" s="10"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -3877,7 +3879,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="37"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="10"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3901,7 +3903,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="37"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="10"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -3925,7 +3927,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3947,7 +3949,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="20"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="37"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3969,7 +3971,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="37"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3991,7 +3993,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="37"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4013,7 +4015,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="20"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="37"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="10"/>
       <c r="U26" s="15"/>
     </row>
@@ -4036,7 +4038,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="20"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="37"/>
+      <c r="O27" s="41"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4058,7 +4060,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="38"/>
+      <c r="O28" s="42"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">

--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C39B8C-C2CC-41C6-8EBF-1A6685B47551}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F617B2-D147-4119-909A-B205625C4848}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,10 +3110,10 @@
       <c r="C95" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
         <v>152</v>
       </c>
@@ -3136,7 +3136,9 @@
       <c r="C96" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
         <v>152</v>

--- a/Game Documents/Tasklist.xlsx
+++ b/Game Documents/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afifah Ilyana\Documents\Unity\Survival Cat\SurvivalCat\Game Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F617B2-D147-4119-909A-B205625C4848}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DCD477-EE27-41E3-8433-C3554E1F2723}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{145BF596-535A-444B-8AAC-B90C21994A79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
   <si>
     <t>No.</t>
   </si>
@@ -169,18 +169,9 @@
     <t>Interaction Matrices</t>
   </si>
   <si>
-    <t>Control Movement</t>
-  </si>
-  <si>
-    <t>Camera Controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">Health Depleting </t>
   </si>
   <si>
-    <t>Automatic Save State</t>
-  </si>
-  <si>
     <t>Collecting Item</t>
   </si>
   <si>
@@ -334,21 +325,12 @@
     <t>Audio</t>
   </si>
   <si>
-    <t>Art and Prefabs</t>
-  </si>
-  <si>
     <t>Main BGM</t>
   </si>
   <si>
     <t>Jumping SFX</t>
   </si>
   <si>
-    <t>Landing SFX</t>
-  </si>
-  <si>
-    <t>Walking SFX</t>
-  </si>
-  <si>
     <t>Dying SFX</t>
   </si>
   <si>
@@ -488,6 +470,33 @@
   </si>
   <si>
     <t xml:space="preserve">                   - Cave</t>
+  </si>
+  <si>
+    <t>Collider Detection</t>
+  </si>
+  <si>
+    <t>Tower randomly stacking</t>
+  </si>
+  <si>
+    <t>Reset Y axis after 1000</t>
+  </si>
+  <si>
+    <t>Camera Rotation</t>
+  </si>
+  <si>
+    <t>Camera Controller - follow player</t>
+  </si>
+  <si>
+    <t>Control Movement (Player)</t>
+  </si>
+  <si>
+    <t>Enemy Movement</t>
+  </si>
+  <si>
+    <t>Platform Movement</t>
+  </si>
+  <si>
+    <t>Art</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +734,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1090,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35185FD3-4372-4441-9237-8C07CEF3F1B2}">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,10 +1152,10 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1156,15 +1168,15 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="28"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1177,16 +1189,16 @@
         <v>12</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="28"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1207,8 +1219,8 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1229,8 +1241,8 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1243,20 +1255,20 @@
         <v>12</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="10"/>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
@@ -1267,27 +1279,27 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="33"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1295,25 +1307,25 @@
         <v>19</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="25"/>
@@ -1321,20 +1333,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1353,13 +1365,13 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1377,12 +1389,14 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1397,12 +1411,14 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1417,12 +1433,14 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1437,12 +1455,14 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1457,12 +1477,14 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1477,12 +1499,14 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1497,8 +1521,8 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1515,10 +1539,10 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1539,13 +1563,13 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="6"/>
@@ -1561,8 +1585,8 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1579,11 +1603,11 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="32">
         <v>3</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>102</v>
+      <c r="B22" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>30</v>
@@ -1603,16 +1627,16 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1625,8 +1649,8 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="11" t="s">
         <v>32</v>
       </c>
@@ -1645,8 +1669,8 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1665,17 +1689,17 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1691,14 +1715,16 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1711,14 +1737,16 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1731,8 +1759,8 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="8" t="s">
         <v>34</v>
       </c>
@@ -1751,15 +1779,15 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1775,15 +1803,15 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1799,10 +1827,10 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
@@ -1821,15 +1849,15 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1845,8 +1873,8 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="14"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
@@ -1863,15 +1891,15 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1885,15 +1913,15 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1907,15 +1935,15 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1929,15 +1957,15 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1951,8 +1979,8 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="14"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
@@ -1969,14 +1997,16 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1989,14 +2019,16 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -2009,14 +2041,16 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -2029,14 +2063,16 @@
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -2049,8 +2085,8 @@
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -2067,14 +2103,16 @@
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -2087,14 +2125,16 @@
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2107,14 +2147,16 @@
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2127,14 +2169,16 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2147,8 +2191,8 @@
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -2165,14 +2209,16 @@
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -2185,14 +2231,16 @@
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2205,14 +2253,16 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -2225,14 +2275,16 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2245,8 +2297,8 @@
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="14"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
@@ -2263,10 +2315,10 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
@@ -2283,10 +2335,10 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
@@ -2303,10 +2355,10 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
@@ -2323,8 +2375,8 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="14"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
@@ -2341,12 +2393,14 @@
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2361,12 +2415,14 @@
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2381,12 +2437,14 @@
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2401,10 +2459,10 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
@@ -2421,8 +2479,8 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="10"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
@@ -2439,10 +2497,10 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+      <c r="A64" s="32">
         <v>4</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -2450,12 +2508,12 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>19</v>
@@ -2469,19 +2527,19 @@
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>19</v>
@@ -2495,19 +2553,19 @@
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>19</v>
@@ -2521,21 +2579,23 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2545,21 +2605,23 @@
       <c r="P67" s="3"/>
     </row>
     <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -2569,21 +2631,23 @@
       <c r="P68" s="3"/>
     </row>
     <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I69" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -2593,8 +2657,8 @@
       <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="10" t="s">
         <v>39</v>
       </c>
@@ -2613,10 +2677,10 @@
       <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="31">
+      <c r="A71" s="32">
         <v>5</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2637,17 +2701,17 @@
       <c r="P71" s="3"/>
     </row>
     <row r="72" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="3"/>
@@ -2659,13 +2723,17 @@
       <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -2679,16 +2747,17 @@
       <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -2699,16 +2768,18 @@
       <c r="P74" s="3"/>
     </row>
     <row r="75" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -2719,12 +2790,14 @@
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -2739,10 +2812,10 @@
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -2759,10 +2832,10 @@
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
@@ -2779,17 +2852,21 @@
       <c r="P78" s="3"/>
     </row>
     <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -2799,8 +2876,8 @@
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="11" t="s">
         <v>42</v>
       </c>
@@ -2808,8 +2885,12 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -2819,8 +2900,8 @@
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="11" t="s">
         <v>43</v>
       </c>
@@ -2839,8 +2920,8 @@
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="8" t="s">
         <v>44</v>
       </c>
@@ -2848,7 +2929,9 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="I82" s="6"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -2859,16 +2942,18 @@
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="I83" s="6"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -2879,8 +2964,8 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="10"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -2897,21 +2982,21 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="36">
+      <c r="A85" s="37">
         <v>6</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>101</v>
+      <c r="B85" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="3"/>
@@ -2923,15 +3008,17 @@
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="3"/>
@@ -2943,15 +3030,17 @@
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="3"/>
@@ -2963,15 +3052,17 @@
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="3"/>
@@ -2983,15 +3074,17 @@
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="3"/>
@@ -3003,14 +3096,10 @@
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3025,10 +3114,14 @@
       <c r="P90" s="3"/>
     </row>
     <row r="91" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="37">
+        <v>7</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="C91" s="11" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
@@ -3063,21 +3156,21 @@
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="36">
-        <v>7</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="11" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="E93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="I93" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -3087,15 +3180,21 @@
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3105,23 +3204,19 @@
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3131,19 +3226,19 @@
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G96" s="6"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6" t="s">
         <v>19</v>
@@ -3157,17 +3252,21 @@
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="11" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="E97" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -3177,12 +3276,14 @@
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3197,12 +3298,14 @@
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
       <c r="C99" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3217,12 +3320,14 @@
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3237,12 +3342,14 @@
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3257,10 +3364,14 @@
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="5"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -3277,11 +3388,15 @@
     <row r="103" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
-      <c r="C103" s="10"/>
+      <c r="C103" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="3"/>
@@ -3293,21 +3408,19 @@
       <c r="P103" s="3"/>
     </row>
     <row r="104" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="36">
-        <v>8</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="11" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -3317,11 +3430,9 @@
       <c r="P104" s="3"/>
     </row>
     <row r="105" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="10"/>
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -3336,16 +3447,60 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
+    <row r="106" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="37">
+        <v>8</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A71:A84"/>
     <mergeCell ref="B71:B84"/>
-    <mergeCell ref="A93:A103"/>
-    <mergeCell ref="B93:B103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="B91:B105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B90"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A63"/>
@@ -3372,7 +3527,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3390,72 +3545,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="A1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>38</v>
@@ -3466,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3480,7 +3635,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="40"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3488,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3502,7 +3657,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="41"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3510,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3524,7 +3679,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3532,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="20"/>
@@ -3546,7 +3701,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="20"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="41"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3554,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="20"/>
@@ -3568,7 +3723,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="20"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="41"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3576,7 +3731,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
@@ -3590,7 +3745,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="20"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="41"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3598,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="20"/>
@@ -3612,20 +3767,20 @@
       <c r="L9" s="10"/>
       <c r="M9" s="20"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="41"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="10"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="T9" s="43"/>
+      <c r="S9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="44"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="20"/>
@@ -3639,21 +3794,21 @@
       <c r="L10" s="10"/>
       <c r="M10" s="20"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="41"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="10"/>
-      <c r="S10" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
+      <c r="S10" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="20"/>
@@ -3667,7 +3822,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="20"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="41"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3675,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="20"/>
@@ -3689,7 +3844,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="20"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="41"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="10"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -3699,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="20"/>
@@ -3713,7 +3868,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="20"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="41"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="10"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15"/>
@@ -3723,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="20"/>
@@ -3737,7 +3892,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="20"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="10"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15"/>
@@ -3747,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
@@ -3761,7 +3916,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="20"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="41"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="10"/>
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
@@ -3771,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="20"/>
@@ -3785,7 +3940,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="20"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="10"/>
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
@@ -3795,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="20"/>
@@ -3809,7 +3964,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="20"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="41"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="10"/>
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
@@ -3819,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="20"/>
@@ -3833,7 +3988,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="20"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="41"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="10"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
@@ -3843,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="20"/>
@@ -3857,7 +4012,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="20"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="41"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="10"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -3867,7 +4022,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="20"/>
@@ -3881,7 +4036,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="20"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="41"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="10"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -3891,7 +4046,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="20"/>
@@ -3905,7 +4060,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="20"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="41"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="10"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -3915,7 +4070,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="20"/>
@@ -3929,7 +4084,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="20"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="41"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3937,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="20"/>
@@ -3951,7 +4106,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="20"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="41"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3959,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="20"/>
@@ -3973,7 +4128,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="20"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="41"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -3981,7 +4136,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="20"/>
@@ -3995,7 +4150,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="20"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="41"/>
+      <c r="O25" s="42"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4003,7 +4158,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="20"/>
@@ -4017,7 +4172,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="20"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="41"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="10"/>
       <c r="U26" s="15"/>
     </row>
@@ -4026,7 +4181,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="20"/>
@@ -4040,7 +4195,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="20"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="41"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -4048,7 +4203,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="20"/>
@@ -4062,7 +4217,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="20"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="42"/>
+      <c r="O28" s="43"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
